--- a/Roteiro de testes.xlsx
+++ b/Roteiro de testes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Testar a funcionalidade 'Esqueci minha senha'</t>
   </si>
@@ -75,18 +75,9 @@
     <t>LOGIN-2</t>
   </si>
   <si>
-    <t>Realizar o login com um email e senha validos</t>
-  </si>
-  <si>
     <t>Login Válido</t>
   </si>
   <si>
-    <t>1 - Acessar o link -  http://69.164.203.63:8080/login/
-2 - Preencher no campo email o endereço "rfolivo@gmail.com"
-3 - Preencher no campo senha o valor 'ricardo123'.
-4 - Logar no sistema</t>
-  </si>
-  <si>
     <t>O sistema deverá logar com esses dados</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
   </si>
   <si>
     <t>Usuário Meus Pedidos</t>
-  </si>
-  <si>
-    <t>O sistema exivirá uma mensagem 'E-mail e senha não conferem.'</t>
   </si>
   <si>
     <t>1 - Acessar o link -  http://69.164.203.63:8080/login/
@@ -134,9 +122,6 @@
 4 - Logar no sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deverá exibir a mensagem 'Este e-mail não possui cadastro no Meus Pedidos. Verifique se digitou corretamente.' </t>
-  </si>
-  <si>
     <t>Senha com caracteres maiusculos</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">O sistema deverá exibir a mensagem 'E-mail e senha não conferem.' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail com caracteres maiusculas </t>
   </si>
   <si>
     <t>LOGIN-3</t>
@@ -205,12 +187,67 @@
   <si>
     <t>LOGIN-8</t>
   </si>
+  <si>
+    <t>Teste Manual</t>
+  </si>
+  <si>
+    <t>Manual-1</t>
+  </si>
+  <si>
+    <t>Teste de segurança</t>
+  </si>
+  <si>
+    <t>Digitar no campo e-mail: ' OR 1=1 --</t>
+  </si>
+  <si>
+    <t>O sisteman não deve permitir esses caracteres no campo e-mail</t>
+  </si>
+  <si>
+    <t>O sistema não deverá conectar.</t>
+  </si>
+  <si>
+    <t>1 - Inserir no campo e-mail o e-mail de um usuário válido. 
+2 -Digitar no campo senha: 'or '1'='1</t>
+  </si>
+  <si>
+    <t>Testando SQL Injection no campo 'senha'</t>
+  </si>
+  <si>
+    <t>Testando SQL Injection no campo 'e-mail'</t>
+  </si>
+  <si>
+    <t>Passou</t>
+  </si>
+  <si>
+    <t>Ricardo Olivo</t>
+  </si>
+  <si>
+    <t>Manual-2</t>
+  </si>
+  <si>
+    <t>Realizar o login com um email e senha válidos</t>
+  </si>
+  <si>
+    <t>1 - Acessar o link -  http://69.164.203.63:8080/login/
+2 - Preencher no campo e-mail o endereço "rfolivo@gmail.com"
+3 - Preencher no campo senha o valor 'ricardo123'.
+4 - Logar no sistema</t>
+  </si>
+  <si>
+    <t>O sistema exibirá uma mensagem 'E-mail e senha não conferem.'</t>
+  </si>
+  <si>
+    <t>O sistema deverá logar normalmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail com caracteres maiusculos </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +273,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +305,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
         <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,8 +438,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,69 +504,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,383 +841,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="35.140625" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="19"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="29">
+        <v>42246</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
+  <mergeCells count="58">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="K12:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="A12:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H9:I9"/>
@@ -1150,22 +1407,27 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
